--- a/biology/Zoologie/Chilades/Chilades.xlsx
+++ b/biology/Zoologie/Chilades/Chilades.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chilades est un genre de lépidoptères de la famille des Lycaenidae et de la sous-famille des Polyommatinae.
 </t>
@@ -511,12 +523,14 @@
           <t>Systématique et phylogénie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Chilades a été décrit par l'entomologiste britannique Frederic Moore en 1881.
-Son espèce type est Papilio lajus Stoll, [1780][1].
+Son espèce type est Papilio lajus Stoll, .
 Ce genre est classé dans la famille des Lycaenidae, la sous-famille des Polyommatinae et la tribu des Polyommatini.
-Certains auteurs synonymisaient avec lui les genres Luthrodes et Freyeria, aujourd'hui considérés comme distincts à la suite d'études de phylogénétique moléculaire[2]. Chilades s'avère être le groupe frère de Luthrodes, et leurs deux lignées ont divergé il y a environ 6 millions d'années[2].
+Certains auteurs synonymisaient avec lui les genres Luthrodes et Freyeria, aujourd'hui considérés comme distincts à la suite d'études de phylogénétique moléculaire. Chilades s'avère être le groupe frère de Luthrodes, et leurs deux lignées ont divergé il y a environ 6 millions d'années.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Distribution géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Chilades est répandu en Afrique et en Asie du Sud et du Sud-Est[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Chilades est répandu en Afrique et en Asie du Sud et du Sud-Est.
 </t>
         </is>
       </c>
@@ -576,16 +592,18 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après Funet[1] et Talavera et al. (2013)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après Funet et Talavera et al. (2013) :
 Chilades alberta Butler, 1901 — Ouganda.
 Chilades eleusis (Demaison, 1888) — Afrique.
 Chilades elicola (Strand, 1911) — Éthiopie, Sud de l'Arabie.
 Chilades evorae Libert, Baliteau &amp; Baliteau, 2011 — Cap-Vert.
 Chilades kedonga (Grose-Smith, 1898) — Afrique de l'Est.
-Chilades lajus (Stoll, [1780]) — de l'Inde à Taïwan et aux Philippines.
-Chilades naidina (Butler, [1886]) — Afrique, Arabie.
+Chilades lajus (Stoll, ) — de l'Inde à Taïwan et aux Philippines.
+Chilades naidina (Butler, ) — Afrique, Arabie.
 Chilades parrhasius (Fabricius, 1793) — Arabie, Inde, Sri Lanka.
 Chilades roemli Kalis, 1933 — Java.
 Chilades saga Grose-Smith, 1895 — Timor.
